--- a/data/trans_bre/PER_DISPO_VERDE-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Edad-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,53 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -105,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -500,359 +464,407 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>16/24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>16-24 años</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,46%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>-1.318918100766797</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.01461701894219031</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,87; 5,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 6,07</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-8.871143293029405</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.09627414356524229</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25/34</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.31456132883689</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.06070673542563906</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>25-34 años</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 7,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 8,62</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>1.018454216402132</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.01186977070005216</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35/44</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-5.5847567061312</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.06188506802793091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>7.026545762628331</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.08619665344256239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>35-44 años</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,64; 5,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 6,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>45/54</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>-1.364236030304855</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.01552132405667444</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-7.635400583709647</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.08285975124246887</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>5.701358872692863</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.06828521013530182</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>45-54 años</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 4,86</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 5,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55/64</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>-1.287325974346565</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.01447680265769746</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-7.500038452047267</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.08167158731592083</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>4.855755421414893</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.05672775351164758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>55-64 años</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,13; 3,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 3,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>-3.13374165755812</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.0356441160094161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>-11.127582749167</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1222207217744192</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>3.025247693084144</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.03366765052811415</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>65-74 años</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 4,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,69; 5,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>-1.895849724964527</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.02147191996395199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>-9.685489994357578</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.1069161138595838</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>4.896425834820419</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.05762705981943606</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>75 y más años</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 6,45</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,55; 8,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>-2.815585653193575</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.03428929475959828</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>-11.03761584629939</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.1254863325637885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>6.445723775838961</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08462982440248307</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 0,92</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C25" s="4" t="n">
+        <v>-1.800820316874452</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>-0.0206091865843951</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>-4.36927310986844</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>-0.04940601055275713</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.9177715516482834</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>0.01073019048278858</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -860,15 +872,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
